--- a/biology/Médecine/Pédicurie/Pédicurie.xlsx
+++ b/biology/Médecine/Pédicurie/Pédicurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9dicurie</t>
+          <t>Pédicurie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pédicurie  est une spécialité destinée aux soins du pied : traitement des affections de la peau et des ongles, etc. C'est une des facettes du métier de pédicure-podologue. Le mot provient du latin pes , pedis, (« pied ») (de la cheville), et cura : « soins ». 
@@ -490,7 +502,7 @@
 apporter des corrections ou protections : orthonyxie, orthoplastie, onychoplastie, contention nocturne…
 Cette discipline paramédicale fait partie des métiers dits de rééducation (orthophoniste, ergothérapeute, psychomotricien, kinésithérapeute…)
 En France, l’exercice de la pédicurie est soumis à une double exigence :
-l’obtention du diplôme d’État (DE) de pédicure-podologue, délivré après la validation de trois années d’études supérieures au sein d'un institut spécialisé[1]. Ce DE confère le grade de licence ;
+l’obtention du diplôme d’État (DE) de pédicure-podologue, délivré après la validation de trois années d’études supérieures au sein d'un institut spécialisé. Ce DE confère le grade de licence ;
 l’inscription au tableau de l’Ordre national des pédicures-podologues.
 </t>
         </is>
